--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="143">
   <si>
     <t xml:space="preserve">rollNo</t>
   </si>
@@ -34,64 +34,421 @@
     <t xml:space="preserve">marks</t>
   </si>
   <si>
+    <t xml:space="preserve">Subhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tahir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Husnain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waleed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waheed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hussnain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fayyaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Talha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allah Ditta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rana Bilal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rana Zahid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aman Ali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Rafi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmad Amjid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajmal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malik Gulam Murtaza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malik Liaqat Ali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azeem Shareef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Shareef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahsan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Umair Irfan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Irfan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharjeel Asif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M Hussnain Arshad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arshad Mehmood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehmood Muzamil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muzamil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouman Asif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asif Iqbal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abu-Bakar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adnan ul Haq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhaid Shahid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mian Shahid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maueez Javeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aslam Javeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ammad Khalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khalid Raza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uneeb Haider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waseem Haider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mansoor Haider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasleem Haider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahad Khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waqas Khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mian Hussain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mian Sajid Ali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shahtaj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shahid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaheer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akbar Ali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Ahmad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tahir Mahmood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usman Touhid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faizan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azhar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bilal Ikram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Ikram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirza Ali Irfan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali Irfan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Ahsan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Younas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bilal</t>
   </si>
   <si>
-    <t xml:space="preserve">Asghar Ali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Majid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rana kk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bilal Ali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laptop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laptop papa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shahid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abc pap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mmera name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usman </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saim;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kk</t>
+    <t xml:space="preserve">M. Saleem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmad Raza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nadir Ali Gujjar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmad Ijaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Ijaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fahad Tasleem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Tasleem Haider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahad Tasleem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Tasleem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali Sher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Sabir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rehan Sajjad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sajjad Rasheed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Mosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Gufran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awais Shoaib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Shoaib Shokat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alina Nazeer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Nazeer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naveed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dua-e-Noor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meerab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehak Bisharat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bisharat Ali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naimat-ullah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faiqa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiaz Ahmad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samiha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hussnain Raza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manahil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shafique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minahil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farooq Khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaweria Naval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Serwer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memoona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdul Waheed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armeen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdul Majid Akhtar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tayyaba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arfa Asif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rana Asif Mehmood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mubashra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Nasir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muqadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Khalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatima Kashif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Kashif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minahil Shahzad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Shahzad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maryam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marukh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Usman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alishba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Saeed Ahmad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maheera Fatima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Younas Mirza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehnaz Abdullah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hafiz M. Abdullah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rabeea Noor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M.Saif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urwa Rauf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdul Rauf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musfira Zia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zia-ur-Rehman Usmani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaika Israr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Israr Shokat</t>
   </si>
 </sst>
 </file>
@@ -165,8 +522,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -187,13 +548,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="206" zoomScaleNormal="206" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B126" activeCellId="0" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.54"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -211,7 +576,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>1</v>
+        <v>238501</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -219,13 +584,10 @@
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>90</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>2</v>
+        <v>238502</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>6</v>
@@ -233,13 +595,10 @@
       <c r="C3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>92</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>3</v>
+        <v>238503</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>8</v>
@@ -247,13 +606,10 @@
       <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>4</v>
+        <v>238504</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>10</v>
@@ -261,13 +617,10 @@
       <c r="C5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>22</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>5</v>
+        <v>238505</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>12</v>
@@ -275,13 +628,10 @@
       <c r="C6" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>6</v>
+        <v>238506</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>14</v>
@@ -289,13 +639,10 @@
       <c r="C7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>45</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>7</v>
+        <v>238507</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>16</v>
@@ -303,13 +650,10 @@
       <c r="C8" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>8</v>
+        <v>238508</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>18</v>
@@ -317,13 +661,10 @@
       <c r="C9" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>9</v>
+        <v>238509</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>20</v>
@@ -331,13 +672,10 @@
       <c r="C10" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>44</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>10</v>
+        <v>238510</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>22</v>
@@ -345,13 +683,1321 @@
       <c r="C11" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>5</v>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>238511</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>238512</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>238513</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>238514</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>238515</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>238516</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>238517</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>238518</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>238519</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>238520</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>238521</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>238522</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>238523</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>238524</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>238525</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>238526</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>238527</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>238528</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>238529</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>238530</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>238531</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>238532</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>238533</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>238534</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>238535</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>238536</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>238537</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>238538</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>238539</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>238540</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>238541</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>238542</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>238543</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>238544</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>238545</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>238546</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>238547</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>0</v>
+        <v>238548</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>238549</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>238550</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>238551</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>238552</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>238553</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>238554</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>238555</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>238556</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>238557</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>238558</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>238559</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>238560</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>238561</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>238562</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>238563</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>238564</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>238565</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>238566</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>238567</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>238568</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>238569</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>238570</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>238571</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>238572</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>238573</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>238574</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>238575</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>238576</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>238577</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>238578</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>238579</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>238580</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>238581</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>238582</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>238583</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>238584</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>238585</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>238586</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>238587</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>238588</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>238589</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>238590</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>238591</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>238592</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>238593</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>238594</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>238595</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>238596</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>238597</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>238598</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>238599</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="n">
+        <v>238600</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="n">
+        <v>238101</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
+        <v>238102</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
+        <v>238103</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="n">
+        <v>238104</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="n">
+        <v>238105</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="n">
+        <v>238106</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="n">
+        <v>238107</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="n">
+        <v>238108</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="n">
+        <v>238109</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="n">
+        <v>238110</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="n">
+        <v>238111</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="n">
+        <v>238112</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="n">
+        <v>238113</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="n">
+        <v>238114</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="n">
+        <v>238115</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="n">
+        <v>238116</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="n">
+        <v>238117</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="n">
+        <v>238118</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="n">
+        <v>238119</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="n">
+        <v>238120</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="n">
+        <v>238121</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="n">
+        <v>238122</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="n">
+        <v>238123</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="n">
+        <v>238124</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
+        <v>238125</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="n">
+        <v>238126</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="n">
+        <v>238127</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="n">
+        <v>238128</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="n">
+        <v>238129</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="n">
+        <v>238130</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="n">
+        <v>238131</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="n">
+        <v>238132</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="n">
+        <v>238133</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="n">
+        <v>238134</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="n">
+        <v>238135</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="n">
+        <v>238136</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="n">
+        <v>238137</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="n">
+        <v>238138</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="n">
+        <v>238139</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="n">
+        <v>238140</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="n">
+        <v>238141</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="n">
+        <v>238142</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="n">
+        <v>238143</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="n">
+        <v>238144</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="n">
+        <v>238145</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="n">
+        <v>238146</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="n">
+        <v>238147</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="n">
+        <v>238148</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="n">
+        <v>238149</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="n">
+        <v>238150</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="n">
+        <v>238151</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="n">
+        <v>238152</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="n">
+        <v>238153</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="n">
+        <v>238154</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="n">
+        <v>238155</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="n">
+        <v>238156</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="n">
+        <v>238157</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="n">
+        <v>238158</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="n">
+        <v>238159</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="n">
+        <v>238160</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="n">
+        <v>238161</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="n">
+        <v>238162</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="n">
+        <v>238163</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="n">
+        <v>238164</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="n">
+        <v>238165</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="n">
+        <v>238166</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="n">
+        <v>238167</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="n">
+        <v>238168</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="n">
+        <v>238169</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="n">
+        <v>238170</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="n">
+        <v>238171</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="n">
+        <v>238172</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="n">
+        <v>238173</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="n">
+        <v>238174</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="n">
+        <v>238175</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="n">
+        <v>238176</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="n">
+        <v>238177</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="n">
+        <v>238178</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="n">
+        <v>238179</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="n">
+        <v>238180</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="n">
+        <v>238181</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="n">
+        <v>238182</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="n">
+        <v>238183</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="n">
+        <v>238184</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="n">
+        <v>238185</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="n">
+        <v>238186</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="n">
+        <v>238187</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="n">
+        <v>238188</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="n">
+        <v>238189</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="n">
+        <v>238190</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="n">
+        <v>238191</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="n">
+        <v>238192</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="n">
+        <v>238193</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="n">
+        <v>238194</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="n">
+        <v>238195</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="n">
+        <v>238196</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="n">
+        <v>238197</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="n">
+        <v>238198</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="n">
+        <v>238199</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="n">
+        <v>238200</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="158">
   <si>
     <t xml:space="preserve">rollNo</t>
   </si>
@@ -286,6 +286,30 @@
     <t xml:space="preserve">M. Shoaib Shokat</t>
   </si>
   <si>
+    <t xml:space="preserve">Abdullah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Naeem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feroz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shah-Jahan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iqbal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huzaifa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaffar Husain</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alina Nazeer</t>
   </si>
   <si>
@@ -449,6 +473,27 @@
   </si>
   <si>
     <t xml:space="preserve">M. Israr Shokat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afsa Nasir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Nasir Butt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noor-ul-Nissa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Sarwer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saima Arif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arif Ali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naima Arif</t>
   </si>
 </sst>
 </file>
@@ -463,6 +508,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -550,14 +596,14 @@
   </sheetPr>
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="206" zoomScaleNormal="206" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B126" activeCellId="0" sqref="B126"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="206" zoomScaleNormal="206" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C131" activeCellId="0" sqref="C131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -584,6 +630,9 @@
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="0" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -617,6 +666,9 @@
       <c r="C5" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="D5" s="0" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -628,6 +680,9 @@
       <c r="C6" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="D6" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -639,6 +694,9 @@
       <c r="C7" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="D7" s="0" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -650,6 +708,9 @@
       <c r="C8" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="D8" s="0" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -661,6 +722,9 @@
       <c r="C9" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="D9" s="0" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -672,6 +736,9 @@
       <c r="C10" s="0" t="s">
         <v>21</v>
       </c>
+      <c r="D10" s="0" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -683,6 +750,9 @@
       <c r="C11" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="D11" s="0" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -716,6 +786,9 @@
       <c r="C14" s="0" t="s">
         <v>29</v>
       </c>
+      <c r="D14" s="0" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -727,6 +800,9 @@
       <c r="C15" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="D15" s="0" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -749,6 +825,9 @@
       <c r="C17" s="0" t="s">
         <v>35</v>
       </c>
+      <c r="D17" s="0" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -760,6 +839,9 @@
       <c r="C18" s="0" t="s">
         <v>37</v>
       </c>
+      <c r="D18" s="0" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -771,6 +853,9 @@
       <c r="C19" s="0" t="s">
         <v>39</v>
       </c>
+      <c r="D19" s="0" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -782,6 +867,9 @@
       <c r="C20" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="D20" s="0" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -804,6 +892,9 @@
       <c r="C22" s="0" t="s">
         <v>45</v>
       </c>
+      <c r="D22" s="0" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -815,6 +906,9 @@
       <c r="C23" s="0" t="s">
         <v>47</v>
       </c>
+      <c r="D23" s="0" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -826,6 +920,9 @@
       <c r="C24" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="D24" s="0" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -870,6 +967,9 @@
       <c r="C28" s="0" t="s">
         <v>57</v>
       </c>
+      <c r="D28" s="0" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
@@ -881,6 +981,9 @@
       <c r="C29" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="D29" s="0" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
@@ -892,6 +995,9 @@
       <c r="C30" s="0" t="s">
         <v>61</v>
       </c>
+      <c r="D30" s="0" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
@@ -903,6 +1009,9 @@
       <c r="C31" s="0" t="s">
         <v>63</v>
       </c>
+      <c r="D31" s="0" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
@@ -925,6 +1034,9 @@
       <c r="C33" s="0" t="s">
         <v>67</v>
       </c>
+      <c r="D33" s="0" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
@@ -936,6 +1048,9 @@
       <c r="C34" s="0" t="s">
         <v>69</v>
       </c>
+      <c r="D34" s="0" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
@@ -947,6 +1062,9 @@
       <c r="C35" s="0" t="s">
         <v>71</v>
       </c>
+      <c r="D35" s="0" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
@@ -958,6 +1076,9 @@
       <c r="C36" s="0" t="s">
         <v>73</v>
       </c>
+      <c r="D36" s="0" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
@@ -980,6 +1101,9 @@
       <c r="C38" s="0" t="s">
         <v>77</v>
       </c>
+      <c r="D38" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
@@ -1002,6 +1126,9 @@
       <c r="C40" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="D40" s="0" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
@@ -1013,6 +1140,9 @@
       <c r="C41" s="0" t="s">
         <v>83</v>
       </c>
+      <c r="D41" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
@@ -1024,6 +1154,9 @@
       <c r="C42" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="D42" s="0" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
@@ -1035,26 +1168,65 @@
       <c r="C43" s="0" t="s">
         <v>87</v>
       </c>
+      <c r="D43" s="0" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>238543</v>
       </c>
+      <c r="B44" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>238544</v>
       </c>
+      <c r="B45" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>238545</v>
       </c>
+      <c r="B46" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>238546</v>
       </c>
+      <c r="B47" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
@@ -1331,10 +1503,13 @@
         <v>238101</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1342,10 +1517,10 @@
         <v>238102</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1353,10 +1528,13 @@
         <v>238103</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1364,10 +1542,13 @@
         <v>238104</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>94</v>
+        <v>102</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1375,10 +1556,13 @@
         <v>238105</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1386,10 +1570,13 @@
         <v>238106</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1397,10 +1584,13 @@
         <v>238107</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1408,10 +1598,10 @@
         <v>238108</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1419,10 +1609,13 @@
         <v>238109</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1430,10 +1623,13 @@
         <v>238110</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1441,10 +1637,13 @@
         <v>238111</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>108</v>
+        <v>116</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1452,10 +1651,13 @@
         <v>238112</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>110</v>
+        <v>118</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1463,10 +1665,13 @@
         <v>238113</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>112</v>
+        <v>120</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1474,10 +1679,13 @@
         <v>238114</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>114</v>
+        <v>122</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1485,7 +1693,7 @@
         <v>238115</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>53</v>
@@ -1496,10 +1704,13 @@
         <v>238116</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>117</v>
+        <v>125</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,10 +1718,13 @@
         <v>238117</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1518,10 +1732,13 @@
         <v>238118</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>121</v>
+        <v>129</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1529,10 +1746,13 @@
         <v>238119</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>123</v>
+        <v>131</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1540,10 +1760,13 @@
         <v>238120</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>125</v>
+        <v>133</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1551,10 +1774,13 @@
         <v>238121</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>27</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1562,10 +1788,13 @@
         <v>238122</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>128</v>
+        <v>136</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1573,10 +1802,13 @@
         <v>238123</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1584,10 +1816,13 @@
         <v>238124</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>132</v>
+        <v>140</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1595,10 +1830,13 @@
         <v>238125</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>134</v>
+        <v>142</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1606,10 +1844,13 @@
         <v>238126</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>136</v>
+        <v>144</v>
+      </c>
+      <c r="D127" s="0" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1617,10 +1858,13 @@
         <v>238127</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>138</v>
+        <v>146</v>
+      </c>
+      <c r="D128" s="0" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1628,10 +1872,13 @@
         <v>238128</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>140</v>
+        <v>148</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1639,30 +1886,69 @@
         <v>238129</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>142</v>
+        <v>150</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
         <v>238130</v>
       </c>
+      <c r="B131" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
         <v>238131</v>
       </c>
+      <c r="B132" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
         <v>238132</v>
       </c>
+      <c r="B133" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
         <v>238133</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="161">
   <si>
     <t xml:space="preserve">rollNo</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">Haider</t>
   </si>
   <si>
+    <t xml:space="preserve">Absent</t>
+  </si>
+  <si>
     <t xml:space="preserve">Waleed</t>
   </si>
   <si>
@@ -308,6 +311,12 @@
   </si>
   <si>
     <t xml:space="preserve">Jaffar Husain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sajjad Hussain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asif Mehmood</t>
   </si>
   <si>
     <t xml:space="preserve">Alina Nazeer</t>
@@ -596,14 +605,14 @@
   </sheetPr>
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="206" zoomScaleNormal="206" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C131" activeCellId="0" sqref="C131"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="206" zoomScaleNormal="206" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -644,16 +653,22 @@
       <c r="C3" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="D3" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>238503</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -661,10 +676,10 @@
         <v>238504</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>27</v>
@@ -675,10 +690,10 @@
         <v>238505</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>23</v>
@@ -689,10 +704,10 @@
         <v>238506</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>36</v>
@@ -703,10 +718,10 @@
         <v>238507</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>35</v>
@@ -717,10 +732,10 @@
         <v>238508</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>24</v>
@@ -731,10 +746,10 @@
         <v>238509</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>26</v>
@@ -745,10 +760,10 @@
         <v>238510</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>32</v>
@@ -759,10 +774,13 @@
         <v>238511</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -770,10 +788,13 @@
         <v>238512</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -781,10 +802,10 @@
         <v>238513</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>30</v>
@@ -795,10 +816,10 @@
         <v>238514</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>37</v>
@@ -809,10 +830,13 @@
         <v>238515</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -820,10 +844,10 @@
         <v>238516</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>40</v>
@@ -834,10 +858,10 @@
         <v>238517</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>28</v>
@@ -848,10 +872,10 @@
         <v>238518</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>40</v>
@@ -862,10 +886,10 @@
         <v>238519</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>33</v>
@@ -876,10 +900,13 @@
         <v>238520</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -887,10 +914,10 @@
         <v>238521</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>33</v>
@@ -901,10 +928,10 @@
         <v>238522</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>29</v>
@@ -915,10 +942,10 @@
         <v>238523</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>78</v>
@@ -929,10 +956,13 @@
         <v>238524</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -940,10 +970,13 @@
         <v>238525</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -951,10 +984,13 @@
         <v>238526</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -962,10 +998,10 @@
         <v>238527</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>47</v>
@@ -976,10 +1012,10 @@
         <v>238528</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>30</v>
@@ -990,10 +1026,10 @@
         <v>238529</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>70</v>
@@ -1004,10 +1040,10 @@
         <v>238530</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>39</v>
@@ -1018,10 +1054,13 @@
         <v>238531</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1029,10 +1068,10 @@
         <v>238532</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>48</v>
@@ -1043,10 +1082,10 @@
         <v>238533</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>38</v>
@@ -1057,10 +1096,10 @@
         <v>238534</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>28</v>
@@ -1071,10 +1110,10 @@
         <v>238535</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>24</v>
@@ -1085,10 +1124,13 @@
         <v>238536</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1096,10 +1138,10 @@
         <v>238537</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>23</v>
@@ -1110,10 +1152,13 @@
         <v>238538</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1121,10 +1166,10 @@
         <v>238539</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>29</v>
@@ -1135,10 +1180,10 @@
         <v>238540</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>25</v>
@@ -1149,10 +1194,10 @@
         <v>238541</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>52</v>
@@ -1163,10 +1208,10 @@
         <v>238542</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>18</v>
@@ -1177,10 +1222,10 @@
         <v>238543</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>28</v>
@@ -1191,10 +1236,10 @@
         <v>238544</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>25</v>
@@ -1205,10 +1250,10 @@
         <v>238545</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>18</v>
@@ -1219,10 +1264,10 @@
         <v>238546</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>25</v>
@@ -1232,6 +1277,15 @@
       <c r="A48" s="0" t="n">
         <v>238547</v>
       </c>
+      <c r="B48" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
@@ -1503,10 +1557,10 @@
         <v>238101</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>26</v>
@@ -1517,10 +1571,13 @@
         <v>238102</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1528,10 +1585,10 @@
         <v>238103</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>43</v>
@@ -1542,10 +1599,10 @@
         <v>238104</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>40</v>
@@ -1556,10 +1613,10 @@
         <v>238105</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>47</v>
@@ -1570,10 +1627,10 @@
         <v>238106</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>30</v>
@@ -1584,10 +1641,10 @@
         <v>238107</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>26</v>
@@ -1598,10 +1655,13 @@
         <v>238108</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1609,10 +1669,10 @@
         <v>238109</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>30</v>
@@ -1623,10 +1683,10 @@
         <v>238110</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>64</v>
@@ -1637,10 +1697,10 @@
         <v>238111</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>24</v>
@@ -1651,10 +1711,10 @@
         <v>238112</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>26</v>
@@ -1665,10 +1725,10 @@
         <v>238113</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>28</v>
@@ -1679,10 +1739,10 @@
         <v>238114</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>35</v>
@@ -1693,10 +1753,13 @@
         <v>238115</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1704,10 +1767,10 @@
         <v>238116</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>46</v>
@@ -1718,10 +1781,10 @@
         <v>238117</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>34</v>
@@ -1732,10 +1795,10 @@
         <v>238118</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>28</v>
@@ -1746,10 +1809,10 @@
         <v>238119</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>46</v>
@@ -1760,10 +1823,10 @@
         <v>238120</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>48</v>
@@ -1774,10 +1837,10 @@
         <v>238121</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>25</v>
@@ -1788,10 +1851,10 @@
         <v>238122</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>30</v>
@@ -1802,10 +1865,10 @@
         <v>238123</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>41</v>
@@ -1816,10 +1879,10 @@
         <v>238124</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>60</v>
@@ -1830,10 +1893,10 @@
         <v>238125</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>53</v>
@@ -1844,10 +1907,10 @@
         <v>238126</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>43</v>
@@ -1858,10 +1921,10 @@
         <v>238127</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>43</v>
@@ -1872,10 +1935,10 @@
         <v>238128</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>64</v>
@@ -1886,10 +1949,10 @@
         <v>238129</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>27</v>
@@ -1900,10 +1963,10 @@
         <v>238130</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>30</v>
@@ -1914,10 +1977,10 @@
         <v>238131</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>53</v>
@@ -1928,10 +1991,10 @@
         <v>238132</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>29</v>
@@ -1942,10 +2005,10 @@
         <v>238133</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>29</v>
